--- a/casos_pediatricos.xlsx
+++ b/casos_pediatricos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Hospita Covid\git pediatrico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB87272-970A-4EE2-AC3D-2D962D968C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318ADD33-6906-4AF5-9BE4-0A747E20913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{689A758D-D66A-4346-800D-8F95C229B75B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="85">
   <si>
     <t>Fecha de Solicitud</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">CLINICA LIMATAMBO CAJAMARCA </t>
-  </si>
-  <si>
-    <t>07/01/2022</t>
   </si>
   <si>
     <t> </t>
@@ -657,7 +654,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -722,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>6485672</v>
@@ -766,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>13461047</v>
@@ -810,7 +807,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>24830145</v>
@@ -854,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>16020669</v>
@@ -898,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>10529332</v>
@@ -942,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>12741747</v>
@@ -986,7 +983,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>25424063</v>
@@ -1033,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>30570421</v>
@@ -1077,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>30699690</v>
@@ -1121,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>18636947</v>
@@ -1158,14 +1155,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="1">
+        <v>44568</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>30611081</v>
@@ -1212,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>26291680</v>
@@ -1256,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>28303257</v>
@@ -1300,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>13427877</v>
@@ -1336,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1344,10 +1341,10 @@
         <v>44572</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>25203422</v>
@@ -1391,10 +1388,10 @@
         <v>44575</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>23221100</v>
@@ -1438,10 +1435,10 @@
         <v>44575</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>11956410</v>
@@ -1477,7 +1474,7 @@
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1488,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>10564330</v>
@@ -1524,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1535,7 +1532,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>28916908</v>
@@ -1571,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1582,7 +1579,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>14035091</v>
@@ -1618,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1629,7 +1626,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>29301312</v>
@@ -1665,7 +1662,7 @@
         <v>17</v>
       </c>
       <c r="O22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1673,10 +1670,10 @@
         <v>44576</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>9860818</v>
@@ -1712,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1720,10 +1717,10 @@
         <v>44578</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>3229533</v>
@@ -1759,7 +1756,7 @@
         <v>17</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1767,10 +1764,10 @@
         <v>44579</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>29403048</v>
@@ -1806,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1817,7 +1814,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>10702134</v>
@@ -1853,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1864,7 +1861,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>30713061</v>
@@ -1900,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1908,10 +1905,10 @@
         <v>44580</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>11700753</v>
@@ -1947,7 +1944,7 @@
         <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1958,7 +1955,7 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>8070886</v>
@@ -1994,7 +1991,7 @@
         <v>17</v>
       </c>
       <c r="O29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2005,7 +2002,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>29389506</v>
@@ -2041,7 +2038,7 @@
         <v>17</v>
       </c>
       <c r="O30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2052,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>29870762</v>
@@ -2088,7 +2085,7 @@
         <v>21</v>
       </c>
       <c r="O31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2099,7 +2096,7 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>29448885</v>
@@ -2135,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="O32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2146,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>8311780</v>
@@ -2182,7 +2179,7 @@
         <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2193,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34">
         <v>30776914</v>
@@ -2229,7 +2226,7 @@
         <v>17</v>
       </c>
       <c r="O34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2240,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>6026285</v>
@@ -2276,7 +2273,7 @@
         <v>17</v>
       </c>
       <c r="O35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2287,7 +2284,7 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>12963005</v>
@@ -2323,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="O36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2334,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <v>26697021</v>
@@ -2370,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="O37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2378,10 +2375,10 @@
         <v>44595</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <v>9017303</v>
@@ -2417,7 +2414,7 @@
         <v>17</v>
       </c>
       <c r="O38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2425,10 +2422,10 @@
         <v>44594</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39">
         <v>29435413</v>
@@ -2464,7 +2461,7 @@
         <v>17</v>
       </c>
       <c r="O39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2475,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <v>30908401</v>
@@ -2511,7 +2508,7 @@
         <v>17</v>
       </c>
       <c r="O40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2519,10 +2516,10 @@
         <v>44597</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41">
         <v>16297604</v>
@@ -2558,7 +2555,7 @@
         <v>17</v>
       </c>
       <c r="O41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2566,10 +2563,10 @@
         <v>44600</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>27058524</v>
@@ -2613,10 +2610,10 @@
         <v>44597</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>12351677</v>
@@ -2652,7 +2649,7 @@
         <v>17</v>
       </c>
       <c r="O43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2660,10 +2657,10 @@
         <v>44608</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>23184845</v>
@@ -2707,7 +2704,7 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>22950061</v>
@@ -2719,7 +2716,7 @@
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45" s="2">
         <v>17</v>
@@ -2751,10 +2748,10 @@
         <v>44589</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46">
         <v>20012879</v>
@@ -2802,6 +2799,7 @@
       <c r="D50" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O46" xr:uid="{33F28035-AAC3-4A79-A6CB-859C17010E98}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/casos_pediatricos.xlsx
+++ b/casos_pediatricos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Hospita Covid\git pediatrico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318ADD33-6906-4AF5-9BE4-0A747E20913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9E0A70-5500-4647-84BD-E21737308086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{689A758D-D66A-4346-800D-8F95C229B75B}"/>
   </bookViews>
@@ -297,19 +297,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,11 +326,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F28035-AAC3-4A79-A6CB-859C17010E98}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,14 +2783,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:O46" xr:uid="{33F28035-AAC3-4A79-A6CB-859C17010E98}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
